--- a/_Experiments/IHC/MSSMpatho/PathoMsBrains_091417.xlsx
+++ b/_Experiments/IHC/MSSMpatho/PathoMsBrains_091417.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
@@ -11,6 +11,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$M$20</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -450,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -466,7 +469,7 @@
     <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +495,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -526,11 +529,8 @@
       <c r="M2" s="2">
         <v>2</v>
       </c>
-      <c r="O2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -564,11 +564,8 @@
       <c r="M3" s="2">
         <v>1</v>
       </c>
-      <c r="O3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -602,11 +599,8 @@
       <c r="M4" s="2">
         <v>3</v>
       </c>
-      <c r="O4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -628,8 +622,11 @@
       <c r="G5" s="1">
         <v>42872</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -651,8 +648,11 @@
       <c r="G6" s="1">
         <v>42872</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -675,10 +675,10 @@
         <v>42884</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -700,20 +700,8 @@
       <c r="G8" s="1">
         <v>42860</v>
       </c>
-      <c r="J8" s="2">
-        <v>1</v>
-      </c>
-      <c r="K8" s="2">
-        <v>2</v>
-      </c>
-      <c r="L8" s="2">
-        <v>3</v>
-      </c>
-      <c r="M8" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -735,20 +723,8 @@
       <c r="G9" s="1">
         <v>42860</v>
       </c>
-      <c r="J9" s="2">
-        <v>5</v>
-      </c>
-      <c r="K9" s="2">
-        <v>6</v>
-      </c>
-      <c r="L9" s="2">
-        <v>7</v>
-      </c>
-      <c r="M9" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -770,20 +746,11 @@
       <c r="G10" s="1">
         <v>42884</v>
       </c>
-      <c r="J10" s="2">
-        <v>9</v>
-      </c>
-      <c r="K10" s="2">
-        <v>10</v>
-      </c>
-      <c r="L10" s="2">
-        <v>11</v>
-      </c>
-      <c r="M10" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -805,8 +772,20 @@
       <c r="G11" s="1">
         <v>42860</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>2</v>
+      </c>
+      <c r="L11" s="2">
+        <v>3</v>
+      </c>
+      <c r="M11" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -828,8 +807,20 @@
       <c r="G12" s="1">
         <v>42872</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J12" s="2">
+        <v>5</v>
+      </c>
+      <c r="K12" s="2">
+        <v>6</v>
+      </c>
+      <c r="L12" s="2">
+        <v>7</v>
+      </c>
+      <c r="M12" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -850,6 +841,18 @@
       </c>
       <c r="G13" s="1">
         <v>42839</v>
+      </c>
+      <c r="J13" s="2">
+        <v>9</v>
+      </c>
+      <c r="K13" s="2">
+        <v>10</v>
+      </c>
+      <c r="L13" s="2">
+        <v>11</v>
+      </c>
+      <c r="M13" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
@@ -858,9 +861,10 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
